--- a/xlsx/country_comparison/gcs_field_positive.xlsx
+++ b/xlsx/country_comparison/gcs_field_positive.xlsx
@@ -437,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.260359802965903</v>
+        <v>0.260359803511911</v>
       </c>
       <c r="C2" t="n">
         <v>0.313939698429808</v>
@@ -460,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.247859243765639</v>
+        <v>0.247859243433779</v>
       </c>
       <c r="C3" t="n">
         <v>0.242646949170102</v>
@@ -483,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.223896780003879</v>
+        <v>0.223896780588525</v>
       </c>
       <c r="C4" t="n">
         <v>0.229609030010104</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.223392239695781</v>
+        <v>0.22339224028537</v>
       </c>
       <c r="C5" t="n">
         <v>0.16773384517865</v>
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170663421050199</v>
+        <v>0.170663420823713</v>
       </c>
       <c r="C6" t="n">
         <v>0.122022791401669</v>
@@ -552,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.113948650945857</v>
+        <v>0.11394865079172</v>
       </c>
       <c r="C7" t="n">
         <v>0.0675779701874408</v>
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.10290613759157</v>
+        <v>0.102906137897967</v>
       </c>
       <c r="C8" t="n">
         <v>0.0733655275845286</v>
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.076830888496526</v>
+        <v>0.0768308888338791</v>
       </c>
       <c r="C9" t="n">
         <v>0.061783125451445</v>
@@ -621,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0654660352983878</v>
+        <v>0.0654660352135739</v>
       </c>
       <c r="C10" t="n">
         <v>0.0263626687212006</v>
@@ -644,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0598861456372102</v>
+        <v>0.0598861455539002</v>
       </c>
       <c r="C11" t="n">
         <v>0.0826225693677903</v>
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0553285925846521</v>
+        <v>0.0553285925198422</v>
       </c>
       <c r="C12" t="n">
         <v>0.0320489457900206</v>
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0536469037744404</v>
+        <v>0.0536469037004071</v>
       </c>
       <c r="C13" t="n">
         <v>0.095438634021211</v>
@@ -713,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0341265514383857</v>
+        <v>0.0341265513929148</v>
       </c>
       <c r="C14" t="n">
         <v>0.0511780162767375</v>
@@ -736,7 +736,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029103747836586</v>
+        <v>0.0291037477956965</v>
       </c>
       <c r="C15" t="n">
         <v>0.0192942537061413</v>
@@ -759,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0.018795872196937</v>
+        <v>0.0187958721708283</v>
       </c>
       <c r="C16" t="n">
         <v>0.0247433482240618</v>
